--- a/Tienda_Cuero.xlsx
+++ b/Tienda_Cuero.xlsx
@@ -8,15 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LUIS_R\Documents\GitHub\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA7F1585-A922-446E-9941-6A5E43189206}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{086796A1-D109-4867-92B2-611BCD4C2DA0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{D017B5FA-85CE-4964-BD08-AC89F0A14A2D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1 (2)" sheetId="3" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId2"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$S$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Hoja1!$A$1:$Z$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja1 (2)'!$A$1:$Z$19</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="64">
   <si>
     <t>Lotes de Compra</t>
   </si>
@@ -135,9 +139,6 @@
     <t>Costo_Total</t>
   </si>
   <si>
-    <t>Falabella</t>
-  </si>
-  <si>
     <t>Ripley</t>
   </si>
   <si>
@@ -150,9 +151,6 @@
     <t>Fecha_Factura</t>
   </si>
   <si>
-    <t>Venciniento_Fact</t>
-  </si>
-  <si>
     <t>Fact_Compra</t>
   </si>
   <si>
@@ -163,6 +161,69 @@
   </si>
   <si>
     <t>Dist.Cueros</t>
+  </si>
+  <si>
+    <t>Direccion_Proveedor</t>
+  </si>
+  <si>
+    <t>Los acacios # 234</t>
+  </si>
+  <si>
+    <t>Los Copihues # 156</t>
+  </si>
+  <si>
+    <t>Valparaíso</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>Region_Proveedor</t>
+  </si>
+  <si>
+    <t>Comuna_Proveedor</t>
+  </si>
+  <si>
+    <t>rut_proveedor</t>
+  </si>
+  <si>
+    <t>9565120-3</t>
+  </si>
+  <si>
+    <t>8124879-1</t>
+  </si>
+  <si>
+    <t>Falabella Retail S. A.</t>
+  </si>
+  <si>
+    <t>Dirección</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manuel Rodrí­guez 730,</t>
+  </si>
+  <si>
+    <t>Comuna</t>
+  </si>
+  <si>
+    <t>Santiago de Chile.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Valparaíso</t>
+  </si>
+  <si>
+    <t>Av. Argentina 51</t>
+  </si>
+  <si>
+    <t>Av. Argentina 151</t>
+  </si>
+  <si>
+    <t>Plaza Victoria 1646</t>
+  </si>
+  <si>
+    <t>Vencimiento_Fact</t>
+  </si>
+  <si>
+    <t>id_operacion</t>
   </si>
 </sst>
 </file>
@@ -172,10 +233,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;\ #,##0"/>
-    <numFmt numFmtId="174" formatCode="#,##0_ ;\-#,##0\ "/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0"/>
+    <numFmt numFmtId="165" formatCode="#,##0_ ;\-#,##0\ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +267,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF888888"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,6 +314,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -240,7 +340,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -248,7 +348,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -269,10 +369,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -290,10 +387,21 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -303,6 +411,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -312,6 +425,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>608381</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>75286</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDB43CE7-4672-4E11-A836-74283D76565D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9752381" cy="7314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -610,1251 +772,3344 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE32EF7-CE7B-4523-A0E1-6642D2720FEF}">
-  <dimension ref="A1:S19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C70F34E-4D54-452A-AC07-CEEF2D399913}">
+  <dimension ref="A1:AA19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="18" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="1"/>
-    <col min="12" max="12" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="1"/>
-    <col min="14" max="14" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="1"/>
-    <col min="18" max="18" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="18.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="7" t="s">
+    <row r="1" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="J1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA1" s="21"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="1">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="17">
         <v>2</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="S1" s="12" t="s">
-        <v>40</v>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3">
+        <f>+I2*G2</f>
+        <v>30000</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="6">
+        <f t="shared" ref="N2:N19" si="0">+L2*10%</f>
+        <v>3000</v>
+      </c>
+      <c r="O2" s="6">
+        <f>+N2+I2</f>
+        <v>4000</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="4">
+        <v>10</v>
+      </c>
+      <c r="T2" s="6">
+        <f>(O2/(1-0.2))*S2</f>
+        <v>50000</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="15">
+        <v>44198</v>
+      </c>
+      <c r="Z2" s="15">
+        <f>+Y2+30</f>
+        <v>44228</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B2" s="1">
-        <v>30</v>
-      </c>
-      <c r="C2" s="1">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="6">
-        <v>1000</v>
-      </c>
-      <c r="E2" s="18">
-        <v>2</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="3">
-        <f>+D2*B2</f>
-        <v>30000</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="6">
-        <f t="shared" ref="I2:I19" si="0">+G2*10%</f>
-        <v>3000</v>
-      </c>
-      <c r="J2" s="6">
-        <f>+I2+D2</f>
-        <v>4000</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N2" s="4">
-        <v>10</v>
-      </c>
-      <c r="O2" s="6">
-        <f>(J2/(1-0.2))*N2</f>
-        <v>50000</v>
-      </c>
-      <c r="P2" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>1</v>
-      </c>
-      <c r="R2" s="16">
-        <v>44198</v>
-      </c>
-      <c r="S2" s="16">
-        <f>+R2+30</f>
-        <v>44228</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="I3" s="6">
         <v>1500</v>
       </c>
-      <c r="E3" s="18">
+      <c r="J3" s="17">
         <v>4</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G6" si="1">+D3*B3</f>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L19" si="1">+I3*G3</f>
         <v>15000</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="6">
+      <c r="N3" s="6">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="J3" s="6">
-        <f t="shared" ref="J3:J19" si="2">+I3+G3</f>
+      <c r="O3" s="6">
+        <f t="shared" ref="O3:O19" si="2">+N3+L3</f>
         <v>16500</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="4">
+      <c r="S3" s="4">
         <v>5</v>
       </c>
-      <c r="O3" s="6">
-        <f t="shared" ref="O3:O19" si="3">(J3/(1-0.2))*N3</f>
+      <c r="T3" s="6">
+        <f t="shared" ref="T3:T19" si="3">(O3/(1-0.2))*S3</f>
         <v>103125</v>
       </c>
-      <c r="P3" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q3" s="1">
+      <c r="U3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="1">
         <v>2</v>
       </c>
-      <c r="R3" s="16">
+      <c r="Y3" s="15">
         <v>44198</v>
       </c>
-      <c r="S3" s="16">
-        <f t="shared" ref="S3:S19" si="4">+R3+30</f>
+      <c r="Z3" s="15">
+        <f t="shared" ref="Z3:Z19" si="4">+Y3+30</f>
         <v>44228</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="1">
         <v>4</v>
       </c>
-      <c r="C4" s="1">
+      <c r="H4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="6">
+      <c r="I4" s="6">
         <v>1000</v>
       </c>
-      <c r="E4" s="18">
+      <c r="J4" s="17">
         <v>22</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="3">
+      <c r="L4" s="3">
         <f t="shared" si="1"/>
         <v>4000</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="6">
+      <c r="N4" s="6">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="J4" s="6">
+      <c r="O4" s="6">
         <f t="shared" si="2"/>
         <v>4400</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="4">
+      <c r="S4" s="4">
         <v>30</v>
       </c>
-      <c r="O4" s="6">
+      <c r="T4" s="6">
         <f t="shared" si="3"/>
         <v>165000</v>
       </c>
-      <c r="P4" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q4" s="1">
+      <c r="U4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" s="1">
         <v>3</v>
       </c>
-      <c r="R4" s="16">
+      <c r="Y4" s="15">
         <v>44201</v>
       </c>
-      <c r="S4" s="16">
+      <c r="Z4" s="15">
         <f t="shared" si="4"/>
         <v>44231</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B5" s="1">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="1">
         <v>2</v>
       </c>
-      <c r="C5" s="1">
+      <c r="H5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" s="6">
+      <c r="I5" s="6">
         <v>950</v>
       </c>
-      <c r="E5" s="18">
+      <c r="J5" s="17">
         <v>4</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="3">
+      <c r="L5" s="3">
         <f t="shared" si="1"/>
         <v>1900</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="6">
+      <c r="N5" s="6">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="J5" s="6">
+      <c r="O5" s="6">
         <f t="shared" si="2"/>
         <v>2090</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="4">
+      <c r="S5" s="4">
         <v>10</v>
       </c>
-      <c r="O5" s="6">
+      <c r="T5" s="6">
         <f t="shared" si="3"/>
         <v>26125</v>
       </c>
-      <c r="P5" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q5" s="1">
+      <c r="U5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="X5" s="1">
         <v>4</v>
       </c>
-      <c r="R5" s="16">
+      <c r="Y5" s="15">
         <v>44202</v>
       </c>
-      <c r="S5" s="16">
+      <c r="Z5" s="15">
         <f t="shared" si="4"/>
         <v>44232</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="1">
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="1">
         <v>11</v>
       </c>
-      <c r="C6" s="1">
+      <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" s="6">
+      <c r="I6" s="6">
         <v>950</v>
       </c>
-      <c r="E6" s="18">
+      <c r="J6" s="17">
         <v>33</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="K6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="3">
+      <c r="L6" s="3">
         <f t="shared" si="1"/>
         <v>10450</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I6" s="6">
+      <c r="N6" s="6">
         <f t="shared" si="0"/>
         <v>1045</v>
       </c>
-      <c r="J6" s="6">
+      <c r="O6" s="6">
         <f t="shared" si="2"/>
         <v>11495</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="4">
+      <c r="S6" s="4">
         <v>20</v>
       </c>
-      <c r="O6" s="6">
+      <c r="T6" s="6">
         <f t="shared" si="3"/>
         <v>287375</v>
       </c>
-      <c r="P6" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q6" s="1">
+      <c r="U6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="X6" s="1">
         <v>5</v>
       </c>
-      <c r="R6" s="16">
+      <c r="Y6" s="15">
         <v>44202</v>
       </c>
-      <c r="S6" s="16">
+      <c r="Z6" s="15">
         <f t="shared" si="4"/>
         <v>44232</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B7" s="1">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1">
         <v>30</v>
       </c>
-      <c r="C7" s="1">
+      <c r="H7" s="1">
         <v>2</v>
       </c>
-      <c r="D7" s="6">
+      <c r="I7" s="6">
         <v>885</v>
       </c>
-      <c r="E7" s="18">
+      <c r="J7" s="17">
         <v>6</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="K7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="3">
-        <f t="shared" ref="G7:G19" si="5">+D7*B7</f>
+      <c r="L7" s="3">
+        <f t="shared" si="1"/>
         <v>26550</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I7" s="6">
+      <c r="N7" s="6">
         <f t="shared" si="0"/>
         <v>2655</v>
       </c>
-      <c r="J7" s="6">
+      <c r="O7" s="6">
         <f t="shared" si="2"/>
         <v>29205</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N7" s="4">
+      <c r="S7" s="4">
         <v>20</v>
       </c>
-      <c r="O7" s="6">
+      <c r="T7" s="6">
         <f t="shared" si="3"/>
         <v>730125</v>
       </c>
-      <c r="P7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q7" s="1">
+      <c r="U7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="X7" s="1">
         <v>6</v>
       </c>
-      <c r="R7" s="16">
+      <c r="Y7" s="15">
         <v>44203</v>
       </c>
-      <c r="S7" s="16">
+      <c r="Z7" s="15">
         <f t="shared" si="4"/>
         <v>44233</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="1">
+      <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1">
         <v>20</v>
       </c>
-      <c r="C8" s="1">
+      <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="6">
+      <c r="I8" s="6">
         <v>820</v>
       </c>
-      <c r="E8" s="18">
+      <c r="J8" s="17">
         <v>34</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="3">
-        <f t="shared" si="5"/>
+      <c r="L8" s="3">
+        <f t="shared" si="1"/>
         <v>16400</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="6">
+      <c r="N8" s="6">
         <f t="shared" si="0"/>
         <v>1640</v>
       </c>
-      <c r="J8" s="6">
+      <c r="O8" s="6">
         <f t="shared" si="2"/>
         <v>18040</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N8" s="4">
+      <c r="S8" s="4">
         <v>25</v>
       </c>
-      <c r="O8" s="6">
+      <c r="T8" s="6">
         <f t="shared" si="3"/>
         <v>563750</v>
       </c>
-      <c r="P8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="1">
+      <c r="U8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="W8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="X8" s="1">
         <v>7</v>
       </c>
-      <c r="R8" s="16">
+      <c r="Y8" s="15">
         <v>44204</v>
       </c>
-      <c r="S8" s="16">
+      <c r="Z8" s="15">
         <f t="shared" si="4"/>
         <v>44234</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="1">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="1">
         <v>3</v>
       </c>
-      <c r="C9" s="1">
+      <c r="H9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="6">
+      <c r="I9" s="6">
         <v>754.99999999999898</v>
       </c>
-      <c r="E9" s="18">
+      <c r="J9" s="17">
         <v>8</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="3">
-        <f t="shared" si="5"/>
+      <c r="L9" s="3">
+        <f t="shared" si="1"/>
         <v>2264.9999999999968</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="6">
+      <c r="N9" s="6">
         <f t="shared" si="0"/>
         <v>226.49999999999969</v>
       </c>
-      <c r="J9" s="6">
+      <c r="O9" s="6">
         <f t="shared" si="2"/>
         <v>2491.4999999999964</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="4">
+      <c r="S9" s="4">
         <v>15</v>
       </c>
-      <c r="O9" s="6">
+      <c r="T9" s="6">
         <f t="shared" si="3"/>
         <v>46715.624999999935</v>
       </c>
-      <c r="P9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q9" s="1">
+      <c r="U9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="W9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="X9" s="1">
         <v>8</v>
       </c>
-      <c r="R9" s="16">
+      <c r="Y9" s="15">
         <v>44205</v>
       </c>
-      <c r="S9" s="16">
+      <c r="Z9" s="15">
         <f t="shared" si="4"/>
         <v>44235</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="1">
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="1">
         <v>15</v>
       </c>
-      <c r="C10" s="1">
+      <c r="H10" s="1">
         <v>1</v>
       </c>
-      <c r="D10" s="6">
+      <c r="I10" s="6">
         <v>689.99999999999898</v>
       </c>
-      <c r="E10" s="18">
+      <c r="J10" s="17">
         <v>36</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="3">
-        <f t="shared" si="5"/>
+      <c r="L10" s="3">
+        <f t="shared" si="1"/>
         <v>10349.999999999985</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="6">
+      <c r="N10" s="6">
         <f t="shared" si="0"/>
         <v>1034.9999999999986</v>
       </c>
-      <c r="J10" s="6">
+      <c r="O10" s="6">
         <f t="shared" si="2"/>
         <v>11384.999999999984</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="4">
+      <c r="S10" s="4">
         <v>2</v>
       </c>
-      <c r="O10" s="6">
+      <c r="T10" s="6">
         <f t="shared" si="3"/>
         <v>28462.499999999956</v>
       </c>
-      <c r="P10" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q10" s="1">
+      <c r="U10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="X10" s="1">
         <v>9</v>
       </c>
-      <c r="R10" s="16">
+      <c r="Y10" s="15">
         <v>44206</v>
       </c>
-      <c r="S10" s="16">
+      <c r="Z10" s="15">
         <f t="shared" si="4"/>
         <v>44236</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="1">
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="1">
         <v>8</v>
       </c>
-      <c r="C11" s="1">
+      <c r="H11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="6">
+      <c r="I11" s="6">
         <v>1000</v>
       </c>
-      <c r="E11" s="18">
+      <c r="J11" s="17">
         <v>45</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="3">
-        <f t="shared" si="5"/>
+      <c r="L11" s="3">
+        <f t="shared" si="1"/>
         <v>8000</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I11" s="6">
+      <c r="N11" s="6">
         <f t="shared" si="0"/>
         <v>800</v>
       </c>
-      <c r="J11" s="6">
+      <c r="O11" s="6">
         <f t="shared" si="2"/>
         <v>8800</v>
       </c>
-      <c r="K11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N11" s="4">
+      <c r="S11" s="4">
         <v>3</v>
       </c>
-      <c r="O11" s="6">
+      <c r="T11" s="6">
         <f t="shared" si="3"/>
         <v>33000</v>
       </c>
-      <c r="P11" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q11" s="1">
+      <c r="U11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="W11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="X11" s="1">
         <v>10</v>
       </c>
-      <c r="R11" s="16">
+      <c r="Y11" s="15">
         <v>44207</v>
       </c>
-      <c r="S11" s="16">
+      <c r="Z11" s="15">
         <f t="shared" si="4"/>
         <v>44237</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="1">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="1">
         <v>7</v>
       </c>
-      <c r="C12" s="1">
+      <c r="H12" s="1">
         <v>2</v>
       </c>
-      <c r="D12" s="6">
+      <c r="I12" s="6">
         <v>800</v>
       </c>
-      <c r="E12" s="18">
+      <c r="J12" s="17">
         <v>15</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="3">
-        <f t="shared" si="5"/>
+      <c r="L12" s="3">
+        <f t="shared" si="1"/>
         <v>5600</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I12" s="6">
+      <c r="N12" s="6">
         <f t="shared" si="0"/>
         <v>560</v>
       </c>
-      <c r="J12" s="6">
+      <c r="O12" s="6">
         <f t="shared" si="2"/>
         <v>6160</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="4">
+      <c r="S12" s="4">
         <v>50</v>
       </c>
-      <c r="O12" s="6">
+      <c r="T12" s="6">
         <f t="shared" si="3"/>
         <v>385000</v>
       </c>
-      <c r="P12" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q12" s="1">
+      <c r="U12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="W12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="X12" s="1">
         <v>11</v>
       </c>
-      <c r="R12" s="16">
+      <c r="Y12" s="15">
         <v>44208</v>
       </c>
-      <c r="S12" s="16">
+      <c r="Z12" s="15">
         <f t="shared" si="4"/>
         <v>44238</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="1">
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="1">
         <v>1</v>
       </c>
-      <c r="C13" s="1">
+      <c r="H13" s="1">
         <v>1</v>
       </c>
-      <c r="D13" s="6">
+      <c r="I13" s="6">
         <v>900</v>
       </c>
-      <c r="E13" s="18">
+      <c r="J13" s="17">
         <v>66</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="3">
-        <f t="shared" si="5"/>
+      <c r="L13" s="3">
+        <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="6">
+      <c r="N13" s="6">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="J13" s="6">
+      <c r="O13" s="6">
         <f t="shared" si="2"/>
         <v>990</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="R13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N13" s="4">
+      <c r="S13" s="4">
         <v>20</v>
       </c>
-      <c r="O13" s="6">
+      <c r="T13" s="6">
         <f t="shared" si="3"/>
         <v>24750</v>
       </c>
-      <c r="P13" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q13" s="1">
+      <c r="U13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="V13" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="W13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="X13" s="1">
         <v>12</v>
       </c>
-      <c r="R13" s="16">
+      <c r="Y13" s="15">
         <v>44209</v>
       </c>
-      <c r="S13" s="16">
+      <c r="Z13" s="15">
         <f t="shared" si="4"/>
         <v>44239</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="1">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="1">
+      <c r="H14" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="6">
+      <c r="I14" s="6">
         <v>1200</v>
       </c>
-      <c r="E14" s="18">
+      <c r="J14" s="17">
         <v>19</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="3">
-        <f t="shared" si="5"/>
+      <c r="L14" s="3">
+        <f t="shared" si="1"/>
         <v>1200</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I14" s="6">
+      <c r="N14" s="6">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="J14" s="6">
+      <c r="O14" s="6">
         <f t="shared" si="2"/>
         <v>1320</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="R14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N14" s="4">
+      <c r="S14" s="4">
         <v>30</v>
       </c>
-      <c r="O14" s="6">
+      <c r="T14" s="6">
         <f t="shared" si="3"/>
         <v>49500</v>
       </c>
-      <c r="P14" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q14" s="1">
+      <c r="U14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="V14" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="W14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="X14" s="1">
         <v>13</v>
       </c>
-      <c r="R14" s="16">
+      <c r="Y14" s="15">
         <v>44210</v>
       </c>
-      <c r="S14" s="16">
+      <c r="Z14" s="15">
         <f t="shared" si="4"/>
         <v>44240</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="1">
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="1">
         <v>8</v>
       </c>
-      <c r="C15" s="1">
+      <c r="H15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="6">
+      <c r="I15" s="6">
         <v>950</v>
       </c>
-      <c r="E15" s="18">
+      <c r="J15" s="17">
         <v>67</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="3">
-        <f t="shared" si="5"/>
+      <c r="L15" s="3">
+        <f t="shared" si="1"/>
         <v>7600</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I15" s="6">
+      <c r="N15" s="6">
         <f t="shared" si="0"/>
         <v>760</v>
       </c>
-      <c r="J15" s="6">
+      <c r="O15" s="6">
         <f t="shared" si="2"/>
         <v>8360</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="R15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N15" s="4">
+      <c r="S15" s="4">
         <v>15</v>
       </c>
-      <c r="O15" s="6">
+      <c r="T15" s="6">
         <f t="shared" si="3"/>
         <v>156750</v>
       </c>
-      <c r="P15" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q15" s="1">
+      <c r="U15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="W15" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="X15" s="1">
         <v>14</v>
       </c>
-      <c r="R15" s="16">
+      <c r="Y15" s="15">
         <v>44211</v>
       </c>
-      <c r="S15" s="16">
+      <c r="Z15" s="15">
         <f t="shared" si="4"/>
         <v>44241</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" s="1">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="1">
         <v>1</v>
       </c>
-      <c r="C16" s="1">
+      <c r="H16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" s="6">
+      <c r="I16" s="6">
         <v>1000</v>
       </c>
-      <c r="E16" s="18">
+      <c r="J16" s="17">
         <v>25</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="3">
-        <f t="shared" si="5"/>
+      <c r="L16" s="3">
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I16" s="6">
+      <c r="N16" s="6">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="J16" s="6">
+      <c r="O16" s="6">
         <f t="shared" si="2"/>
         <v>1100</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="R16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N16" s="4">
+      <c r="S16" s="4">
         <v>20</v>
       </c>
-      <c r="O16" s="6">
+      <c r="T16" s="6">
         <f t="shared" si="3"/>
         <v>27500</v>
       </c>
-      <c r="P16" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q16" s="1">
+      <c r="U16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="V16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="X16" s="1">
         <v>15</v>
       </c>
-      <c r="R16" s="16">
+      <c r="Y16" s="15">
         <v>44212</v>
       </c>
-      <c r="S16" s="16">
+      <c r="Z16" s="15">
         <f t="shared" si="4"/>
         <v>44242</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="1">
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="1">
         <v>6</v>
       </c>
-      <c r="C17" s="1">
+      <c r="H17" s="1">
         <v>2</v>
       </c>
-      <c r="D17" s="6">
+      <c r="I17" s="6">
         <v>1450</v>
       </c>
-      <c r="E17" s="18">
+      <c r="J17" s="17">
         <v>69</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="3">
-        <f t="shared" si="5"/>
+      <c r="L17" s="3">
+        <f t="shared" si="1"/>
         <v>8700</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I17" s="6">
+      <c r="N17" s="6">
         <f t="shared" si="0"/>
         <v>870</v>
       </c>
-      <c r="J17" s="6">
+      <c r="O17" s="6">
         <f t="shared" si="2"/>
         <v>9570</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="R17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N17" s="4">
+      <c r="S17" s="4">
         <v>30</v>
       </c>
-      <c r="O17" s="6">
+      <c r="T17" s="6">
         <f t="shared" si="3"/>
         <v>358875</v>
       </c>
-      <c r="P17" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q17" s="1">
+      <c r="U17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="W17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="X17" s="1">
         <v>16</v>
       </c>
-      <c r="R17" s="16">
+      <c r="Y17" s="15">
         <v>44213</v>
       </c>
-      <c r="S17" s="16">
+      <c r="Z17" s="15">
         <f t="shared" si="4"/>
         <v>44243</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" s="1">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="1">
         <v>1</v>
       </c>
-      <c r="C18" s="1">
+      <c r="H18" s="1">
         <v>1</v>
       </c>
-      <c r="D18" s="6">
+      <c r="I18" s="6">
         <v>910</v>
       </c>
-      <c r="E18" s="18">
+      <c r="J18" s="17">
         <v>27</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="3">
-        <f t="shared" si="5"/>
+      <c r="L18" s="3">
+        <f t="shared" si="1"/>
         <v>910</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I18" s="6">
+      <c r="N18" s="6">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="J18" s="6">
+      <c r="O18" s="6">
         <f t="shared" si="2"/>
         <v>1001</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="R18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="4">
+      <c r="S18" s="4">
         <v>15</v>
       </c>
-      <c r="O18" s="6">
+      <c r="T18" s="6">
         <f t="shared" si="3"/>
         <v>18768.75</v>
       </c>
-      <c r="P18" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q18" s="1">
+      <c r="U18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="V18" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="W18" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="X18" s="1">
         <v>17</v>
       </c>
-      <c r="R18" s="16">
+      <c r="Y18" s="15">
         <v>44214</v>
       </c>
-      <c r="S18" s="16">
+      <c r="Z18" s="15">
         <f t="shared" si="4"/>
         <v>44244</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="1">
+      <c r="D19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="1">
         <v>20</v>
       </c>
-      <c r="C19" s="1">
+      <c r="H19" s="1">
         <v>2</v>
       </c>
-      <c r="D19" s="6">
+      <c r="I19" s="6">
         <v>1250</v>
       </c>
-      <c r="E19" s="18">
+      <c r="J19" s="17">
         <v>70</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="K19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="3">
-        <f t="shared" si="5"/>
+      <c r="L19" s="3">
+        <f t="shared" si="1"/>
         <v>25000</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="6">
+      <c r="N19" s="6">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="J19" s="6">
+      <c r="O19" s="6">
         <f t="shared" si="2"/>
         <v>27500</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="R19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="N19" s="4">
+      <c r="S19" s="4">
         <v>20</v>
       </c>
-      <c r="O19" s="6">
+      <c r="T19" s="6">
         <f t="shared" si="3"/>
         <v>687500</v>
       </c>
-      <c r="P19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q19" s="1">
+      <c r="U19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="V19" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="W19" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="X19" s="1">
         <v>18</v>
       </c>
-      <c r="R19" s="16">
+      <c r="Y19" s="15">
         <v>44215</v>
       </c>
-      <c r="S19" s="16">
+      <c r="Z19" s="15">
         <f t="shared" si="4"/>
         <v>44245</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S19" xr:uid="{138ADE94-6CDE-4532-AAC8-60AF8C00ACC3}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDE32EF7-CE7B-4523-A0E1-6642D2720FEF}">
+  <dimension ref="A1:AA19"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="18.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="18.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="X1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA1" s="21"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="1">
+        <v>30</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1000</v>
+      </c>
+      <c r="J2" s="17">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3">
+        <f>+I2*G2</f>
+        <v>30000</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="6">
+        <f t="shared" ref="N2:N19" si="0">+L2*10%</f>
+        <v>3000</v>
+      </c>
+      <c r="O2" s="6">
+        <f>+N2+I2</f>
+        <v>4000</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="4">
+        <v>10</v>
+      </c>
+      <c r="T2" s="6">
+        <f>(O2/(1-0.2))*S2</f>
+        <v>50000</v>
+      </c>
+      <c r="U2" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="15">
+        <v>44198</v>
+      </c>
+      <c r="Z2" s="15">
+        <f>+Y2+30</f>
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1">
+        <v>10</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6">
+        <v>1500</v>
+      </c>
+      <c r="J3" s="17">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L6" si="1">+I3*G3</f>
+        <v>15000</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="6">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="O3" s="6">
+        <f t="shared" ref="O3:O19" si="2">+N3+L3</f>
+        <v>16500</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="4">
+        <v>5</v>
+      </c>
+      <c r="T3" s="6">
+        <f t="shared" ref="T3:T19" si="3">(O3/(1-0.2))*S3</f>
+        <v>103125</v>
+      </c>
+      <c r="U3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="X3" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y3" s="15">
+        <v>44198</v>
+      </c>
+      <c r="Z3" s="15">
+        <f t="shared" ref="Z3:Z19" si="4">+Y3+30</f>
+        <v>44228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1000</v>
+      </c>
+      <c r="J4" s="17">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N4" s="6">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="O4" s="6">
+        <f t="shared" si="2"/>
+        <v>4400</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S4" s="4">
+        <v>30</v>
+      </c>
+      <c r="T4" s="6">
+        <f t="shared" si="3"/>
+        <v>165000</v>
+      </c>
+      <c r="U4" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="W4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y4" s="15">
+        <v>44201</v>
+      </c>
+      <c r="Z4" s="15">
+        <f t="shared" si="4"/>
+        <v>44231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5" s="6">
+        <v>950</v>
+      </c>
+      <c r="J5" s="17">
+        <v>4</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="1"/>
+        <v>1900</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="6">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="O5" s="6">
+        <f t="shared" si="2"/>
+        <v>2090</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="4">
+        <v>10</v>
+      </c>
+      <c r="T5" s="6">
+        <f t="shared" si="3"/>
+        <v>26125</v>
+      </c>
+      <c r="U5" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="W5" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="X5" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="15">
+        <v>44202</v>
+      </c>
+      <c r="Z5" s="15">
+        <f t="shared" si="4"/>
+        <v>44232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="1">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>950</v>
+      </c>
+      <c r="J6" s="17">
+        <v>33</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="1"/>
+        <v>10450</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N6" s="6">
+        <f t="shared" si="0"/>
+        <v>1045</v>
+      </c>
+      <c r="O6" s="6">
+        <f t="shared" si="2"/>
+        <v>11495</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S6" s="4">
+        <v>20</v>
+      </c>
+      <c r="T6" s="6">
+        <f t="shared" si="3"/>
+        <v>287375</v>
+      </c>
+      <c r="U6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="V6" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="W6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="X6" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>44202</v>
+      </c>
+      <c r="Z6" s="15">
+        <f t="shared" si="4"/>
+        <v>44232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="1">
+        <v>30</v>
+      </c>
+      <c r="H7" s="1">
+        <v>2</v>
+      </c>
+      <c r="I7" s="6">
+        <v>885</v>
+      </c>
+      <c r="J7" s="17">
+        <v>6</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L7" s="3">
+        <f t="shared" ref="L7:L19" si="5">+I7*G7</f>
+        <v>26550</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="6">
+        <f t="shared" si="0"/>
+        <v>2655</v>
+      </c>
+      <c r="O7" s="6">
+        <f t="shared" si="2"/>
+        <v>29205</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S7" s="4">
+        <v>20</v>
+      </c>
+      <c r="T7" s="6">
+        <f t="shared" si="3"/>
+        <v>730125</v>
+      </c>
+      <c r="U7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="V7" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="W7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="X7" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y7" s="15">
+        <v>44203</v>
+      </c>
+      <c r="Z7" s="15">
+        <f t="shared" si="4"/>
+        <v>44233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="1">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6">
+        <v>820</v>
+      </c>
+      <c r="J8" s="17">
+        <v>34</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L8" s="3">
+        <f t="shared" si="5"/>
+        <v>16400</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8" s="6">
+        <f t="shared" si="0"/>
+        <v>1640</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="2"/>
+        <v>18040</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S8" s="4">
+        <v>25</v>
+      </c>
+      <c r="T8" s="6">
+        <f t="shared" si="3"/>
+        <v>563750</v>
+      </c>
+      <c r="U8" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="V8" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="W8" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="X8" s="1">
+        <v>7</v>
+      </c>
+      <c r="Y8" s="15">
+        <v>44204</v>
+      </c>
+      <c r="Z8" s="15">
+        <f t="shared" si="4"/>
+        <v>44234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="1">
+        <v>3</v>
+      </c>
+      <c r="H9" s="1">
+        <v>2</v>
+      </c>
+      <c r="I9" s="6">
+        <v>754.99999999999898</v>
+      </c>
+      <c r="J9" s="17">
+        <v>8</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" s="3">
+        <f t="shared" si="5"/>
+        <v>2264.9999999999968</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N9" s="6">
+        <f t="shared" si="0"/>
+        <v>226.49999999999969</v>
+      </c>
+      <c r="O9" s="6">
+        <f t="shared" si="2"/>
+        <v>2491.4999999999964</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="4">
+        <v>15</v>
+      </c>
+      <c r="T9" s="6">
+        <f t="shared" si="3"/>
+        <v>46715.624999999935</v>
+      </c>
+      <c r="U9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="V9" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="W9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="X9" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y9" s="15">
+        <v>44205</v>
+      </c>
+      <c r="Z9" s="15">
+        <f t="shared" si="4"/>
+        <v>44235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="1">
+        <v>15</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>689.99999999999898</v>
+      </c>
+      <c r="J10" s="17">
+        <v>36</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L10" s="3">
+        <f t="shared" si="5"/>
+        <v>10349.999999999985</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="6">
+        <f t="shared" si="0"/>
+        <v>1034.9999999999986</v>
+      </c>
+      <c r="O10" s="6">
+        <f t="shared" si="2"/>
+        <v>11384.999999999984</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S10" s="4">
+        <v>2</v>
+      </c>
+      <c r="T10" s="6">
+        <f t="shared" si="3"/>
+        <v>28462.499999999956</v>
+      </c>
+      <c r="U10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="W10" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="X10" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y10" s="15">
+        <v>44206</v>
+      </c>
+      <c r="Z10" s="15">
+        <f t="shared" si="4"/>
+        <v>44236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="1">
+        <v>8</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1000</v>
+      </c>
+      <c r="J11" s="17">
+        <v>45</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="3">
+        <f t="shared" si="5"/>
+        <v>8000</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N11" s="6">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="O11" s="6">
+        <f t="shared" si="2"/>
+        <v>8800</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S11" s="4">
+        <v>3</v>
+      </c>
+      <c r="T11" s="6">
+        <f t="shared" si="3"/>
+        <v>33000</v>
+      </c>
+      <c r="U11" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="V11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="W11" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="X11" s="1">
+        <v>10</v>
+      </c>
+      <c r="Y11" s="15">
+        <v>44207</v>
+      </c>
+      <c r="Z11" s="15">
+        <f t="shared" si="4"/>
+        <v>44237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="1">
+        <v>7</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="6">
+        <v>800</v>
+      </c>
+      <c r="J12" s="17">
+        <v>15</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="5"/>
+        <v>5600</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+      <c r="O12" s="6">
+        <f t="shared" si="2"/>
+        <v>6160</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S12" s="4">
+        <v>50</v>
+      </c>
+      <c r="T12" s="6">
+        <f t="shared" si="3"/>
+        <v>385000</v>
+      </c>
+      <c r="U12" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="V12" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="W12" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="X12" s="1">
+        <v>11</v>
+      </c>
+      <c r="Y12" s="15">
+        <v>44208</v>
+      </c>
+      <c r="Z12" s="15">
+        <f t="shared" si="4"/>
+        <v>44238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <v>900</v>
+      </c>
+      <c r="J13" s="17">
+        <v>66</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="3">
+        <f t="shared" si="5"/>
+        <v>900</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="O13" s="6">
+        <f t="shared" si="2"/>
+        <v>990</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S13" s="4">
+        <v>20</v>
+      </c>
+      <c r="T13" s="6">
+        <f t="shared" si="3"/>
+        <v>24750</v>
+      </c>
+      <c r="U13" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="V13" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="W13" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="X13" s="1">
+        <v>12</v>
+      </c>
+      <c r="Y13" s="15">
+        <v>44209</v>
+      </c>
+      <c r="Z13" s="15">
+        <f t="shared" si="4"/>
+        <v>44239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="6">
+        <v>1200</v>
+      </c>
+      <c r="J14" s="17">
+        <v>19</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L14" s="3">
+        <f t="shared" si="5"/>
+        <v>1200</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="O14" s="6">
+        <f t="shared" si="2"/>
+        <v>1320</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S14" s="4">
+        <v>30</v>
+      </c>
+      <c r="T14" s="6">
+        <f t="shared" si="3"/>
+        <v>49500</v>
+      </c>
+      <c r="U14" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="V14" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="W14" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="X14" s="1">
+        <v>13</v>
+      </c>
+      <c r="Y14" s="15">
+        <v>44210</v>
+      </c>
+      <c r="Z14" s="15">
+        <f t="shared" si="4"/>
+        <v>44240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="1">
+        <v>8</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6">
+        <v>950</v>
+      </c>
+      <c r="J15" s="17">
+        <v>67</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L15" s="3">
+        <f t="shared" si="5"/>
+        <v>7600</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="6">
+        <f t="shared" si="0"/>
+        <v>760</v>
+      </c>
+      <c r="O15" s="6">
+        <f t="shared" si="2"/>
+        <v>8360</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S15" s="4">
+        <v>15</v>
+      </c>
+      <c r="T15" s="6">
+        <f t="shared" si="3"/>
+        <v>156750</v>
+      </c>
+      <c r="U15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="W15" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="X15" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y15" s="15">
+        <v>44211</v>
+      </c>
+      <c r="Z15" s="15">
+        <f t="shared" si="4"/>
+        <v>44241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1000</v>
+      </c>
+      <c r="J16" s="17">
+        <v>25</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="3">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="O16" s="6">
+        <f t="shared" si="2"/>
+        <v>1100</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S16" s="4">
+        <v>20</v>
+      </c>
+      <c r="T16" s="6">
+        <f t="shared" si="3"/>
+        <v>27500</v>
+      </c>
+      <c r="U16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="V16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="W16" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="X16" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y16" s="15">
+        <v>44212</v>
+      </c>
+      <c r="Z16" s="15">
+        <f t="shared" si="4"/>
+        <v>44242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="1">
+        <v>6</v>
+      </c>
+      <c r="H17" s="1">
+        <v>2</v>
+      </c>
+      <c r="I17" s="6">
+        <v>1450</v>
+      </c>
+      <c r="J17" s="17">
+        <v>69</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" s="3">
+        <f t="shared" si="5"/>
+        <v>8700</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="0"/>
+        <v>870</v>
+      </c>
+      <c r="O17" s="6">
+        <f t="shared" si="2"/>
+        <v>9570</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S17" s="4">
+        <v>30</v>
+      </c>
+      <c r="T17" s="6">
+        <f t="shared" si="3"/>
+        <v>358875</v>
+      </c>
+      <c r="U17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="W17" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="X17" s="1">
+        <v>16</v>
+      </c>
+      <c r="Y17" s="15">
+        <v>44213</v>
+      </c>
+      <c r="Z17" s="15">
+        <f t="shared" si="4"/>
+        <v>44243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="6">
+        <v>910</v>
+      </c>
+      <c r="J18" s="17">
+        <v>27</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" s="3">
+        <f t="shared" si="5"/>
+        <v>910</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" si="0"/>
+        <v>91</v>
+      </c>
+      <c r="O18" s="6">
+        <f t="shared" si="2"/>
+        <v>1001</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="S18" s="4">
+        <v>15</v>
+      </c>
+      <c r="T18" s="6">
+        <f t="shared" si="3"/>
+        <v>18768.75</v>
+      </c>
+      <c r="U18" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="V18" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="W18" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="X18" s="1">
+        <v>17</v>
+      </c>
+      <c r="Y18" s="15">
+        <v>44214</v>
+      </c>
+      <c r="Z18" s="15">
+        <f t="shared" si="4"/>
+        <v>44244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="1">
+        <v>20</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1250</v>
+      </c>
+      <c r="J19" s="17">
+        <v>70</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="3">
+        <f t="shared" si="5"/>
+        <v>25000</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="O19" s="6">
+        <f t="shared" si="2"/>
+        <v>27500</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S19" s="4">
+        <v>20</v>
+      </c>
+      <c r="T19" s="6">
+        <f t="shared" si="3"/>
+        <v>687500</v>
+      </c>
+      <c r="U19" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="V19" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="W19" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="X19" s="1">
+        <v>18</v>
+      </c>
+      <c r="Y19" s="15">
+        <v>44215</v>
+      </c>
+      <c r="Z19" s="15">
+        <f t="shared" si="4"/>
+        <v>44245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64C1FA6-A46B-4BE5-B6D1-71FAAE7B50E2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3670E1A0-D127-46F5-A3E6-B23CB5C7A16E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>